--- a/input/TrafficControl.xlsx
+++ b/input/TrafficControl.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Traffic Control</t>
   </si>
   <si>
     <t xml:space="preserve">0.622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172666</t>
   </si>
 </sst>
 </file>
@@ -118,7 +112,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,7 +140,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -159,6 +159,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -237,7 +243,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,8 +272,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -282,11 +288,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -294,19 +300,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,10 +399,10 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFCE4D6"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0070C0"/>
@@ -426,20 +452,20 @@
   <dimension ref="A1:CG221"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,10 +522,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="6"/>
@@ -515,108 +541,130 @@
       <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="n">
+        <v>30</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="n">
-        <v>1300</v>
+      <c r="B7" s="14" t="n">
+        <v>0.03165</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="2"/>
+      <c r="C7" s="15" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="16" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="F7" s="17" t="n">
+        <v>0.03165</v>
+      </c>
+      <c r="G7" s="17" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H7" s="17" t="n">
+        <v>625</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="n">
-        <v>1</v>
+      <c r="A8" s="19" t="n">
+        <v>2</v>
       </c>
-      <c r="B8" s="16" t="n">
-        <v>0.1222</v>
+      <c r="B8" s="20" t="n">
+        <v>0.03165</v>
       </c>
-      <c r="C8" s="17" t="n">
-        <v>1714</v>
+      <c r="C8" s="16" t="n">
+        <v>1600</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="n">
-        <v>1</v>
+      <c r="D8" s="16" t="n">
+        <v>1000</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>3</v>
+      <c r="E8" s="16" t="n">
+        <v>31.65</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="F8" s="17" t="n">
+        <v>0.0277966</v>
+      </c>
+      <c r="G8" s="17" t="n">
         <v>1680</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="H8" s="17" t="n">
+        <v>600</v>
+      </c>
+      <c r="I8" s="18" t="n">
+        <v>15.9583</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="24"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -649,8 +697,8 @@
       <c r="AE16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -746,10 +794,10 @@
       <c r="AE19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="25"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -833,8 +881,8 @@
       <c r="CG20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -920,13 +968,13 @@
       <c r="CG21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1007,9 +1055,9 @@
       <c r="CG22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="22"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1093,9 +1141,9 @@
       <c r="CG23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1179,8 +1227,8 @@
       <c r="CG24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -18196,6 +18244,9 @@
       <c r="CG221" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/input/TrafficControl.xlsx
+++ b/input/TrafficControl.xlsx
@@ -134,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -162,12 +162,7 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -182,6 +177,7 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -190,13 +186,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -426,15 +415,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,11 +439,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -462,19 +451,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -482,15 +471,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,47 +491,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -554,11 +543,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -566,15 +555,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -642,7 +631,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -734,18 +723,17 @@
   <dimension ref="A1:CG221"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15:I22"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="21.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.62"/>
   </cols>

--- a/input/TrafficControl.xlsx
+++ b/input/TrafficControl.xlsx
@@ -723,7 +723,7 @@
   <dimension ref="A1:CG221"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1035,10 +1035,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44" t="n">
-        <v>100</v>
+        <v>620</v>
       </c>
       <c r="B17" s="44" t="n">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="C17" s="44" t="n">
+        <v>651.6</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="43"/>
@@ -1070,10 +1073,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B18" s="44" t="n">
-        <v>1221</v>
+        <v>-1</v>
+      </c>
+      <c r="C18" s="44" t="n">
+        <v>-1</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="43"/>

--- a/input/TrafficControl.xlsx
+++ b/input/TrafficControl.xlsx
@@ -723,7 +723,7 @@
   <dimension ref="A1:CG221"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="43"/>
